--- a/baz/bar.xlsx
+++ b/baz/bar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phammant\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phammant\Documents\Snirt\test\baz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>sd</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>fgh</t>
+  </si>
+  <si>
+    <t>dfssdsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fs</t>
   </si>
 </sst>
 </file>
@@ -353,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,14 +381,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
